--- a/xlsx/ga_274_margin_collation.xlsx
+++ b/xlsx/ga_274_margin_collation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjmccollum\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjmccollum\Desktop\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FFE9F1-4B07-4E82-96CF-DCA4B2DFE8A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collation" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="976">
   <si>
     <t>verse</t>
   </si>
@@ -277,18 +278,6 @@
     <t>16v</t>
   </si>
   <si>
-    <t>το αγιον</t>
-  </si>
-  <si>
-    <t>[τα αγια]</t>
-  </si>
-  <si>
-    <t>274* reads τον αγιον; 01, 03, 04, 07, 011, 017, 019, 021, 022, 028, 030, 031, 032, 033, 037, 038, 041, 042, 043, 045, 0211, 0287, f1 pt, f13, f35, 2, 9, 16, 22, 27, 33, 71, 75, 114, 119, 161, 164, 184, 199, 217, 269, 274C, 291, 371, 372, 449, 517, 545, 565, 579, 585, 700, 726, 804, 892, 954, 1005, 1071, 1079, 1167, 1192, 1216, 1241, 1243, 1273, 1319, 1321, 1325, 1365, 1424T, 1519, 1675, L63, L387, L547, L627, L773, L844, L848, L950, L2211, Basil, Did, DidB pt read το αγιον.</t>
-  </si>
-  <si>
-    <t>f1 pt, 157, 274A vid, 431, 461, 544, 740, 1093, 1200, 1342, 1424K, 2786, CyrJ, DidB pt read τα αγια.</t>
-  </si>
-  <si>
     <t>The marginal note is smudged out; the only place with any trace of what could be the marker is over the phrase το αγιον.</t>
   </si>
   <si>
@@ -481,12 +470,6 @@
     <t>αι</t>
   </si>
   <si>
-    <t>05, 019, 032, 043, 0211, 274T, 545, 579, 700, 1243, L2211 read συνερει; 038 reads συνερι; 2* reads συνερη; 2C reads συνηρει.</t>
-  </si>
-  <si>
-    <t>01, 02, 03, 04, 07, 017, 021, 028, 030, 031, 033, 034, 036, 037, 041, 042, 045, f1, f13, f35, 9, 16, 22, 27, 33, 71, 75, 114, 119, 157, 161, 164, 184, 199, 269, 274A, 291, 371, 372, 431, 449, 461, 517, 544, 565, 585, 726, 804, 892, 954, 1005, 1071, 1079, 1093, 1167, 1192, 1200, 1216, 1241, 1319, 1321, 1325, 1342, 1365, 1424, 1519, 1675, 2786, L63, L547, L773 (in two lections), L844, L848, L849, L950 (in two lections), L1126, Basil read συναιρει.</t>
-  </si>
-  <si>
     <t>Written in majuscule script; this may simply be a correction to a mistake made by ear, but it is worth noting that the variation amounts to a difference between the roots συναιρω (with λογον, “cast up accounts”) and συνερεω (“speak together with”); the siglum in the margin does not seem to occur in the text, so this is a guess based on the line closest to this note.</t>
   </si>
   <si>
@@ -700,9 +683,6 @@
     <t>συροφοινικισσα</t>
   </si>
   <si>
-    <t>03C2, 021, 022, 028T, 033, 034, 036, 042, 045, f13, f35, 2, 22, 71, 75, 119, 157, 291, 431, 449, 461, 517, 700, 804, 1005, 1167, 1192, 1216, 1321, 1342, 1365, 1675, 2542, 2786, L773, pm read συρα φοινικισσα; 03* reads συρα φοινεικισσα; 1243C reads συρα φοινηκισσα; 1243* reads συρα φοινηκεισσα; 07, 184, 217 read συρα φοινικησσα; 740, 1093 read συρα φοινικησα; 9, 16, 199 read συρα φοινικισα; 030, 032, 752, 1515 read συρα φοινισσα; 0211 reads συρα φυνισα; 544 reads συρα [φ]οινικισσα.</t>
-  </si>
-  <si>
     <t>01, 02, 017, 019, 028A, 037, 038, 041, f1, 28, 114C, 164, 269, 371, 565, 579, 585, 726, 892, 954, 1071, 1079, 1200, 1241, 1424, 1519, 1574, pm read συροφοινικισσα; 545 reads συροφοινικις; L387 reads συροφοινικισα; 114*, 1273, 1319 read συροφοινικησσα; L950 reads συροφοινικησα; L2211 reads συροφυνικησσα; P45 reads συροφοινικ[ισσα]; 238, 372, 377, 807, 1160, 2737 read συροφοινισσα; 1325 reads συροφινοισα; 05* reads φυνισσα; 05C1 reads φοινισσα.</t>
   </si>
   <si>
@@ -760,9 +740,6 @@
     <t>01, 02, 03, 04, 05, 019, 021C, 022, 034*, 037, 038, 043, f1, 16, 119, 184, 217, 269, 274A, 372, 517, 565, 579, 700, 954, 1071, 1093, 1216, 1241, 1243, 1342, 1424, 1574, 1675, 2786, L387, L773, L950 add τουτων.</t>
   </si>
   <si>
-    <t>Written in majuscule script; this could be a correction to an omission by haplography, but both readings are well-attested; occurs after μικρων.</t>
-  </si>
-  <si>
     <t>Mk 9:44</t>
   </si>
   <si>
@@ -824,9 +801,6 @@
   </si>
   <si>
     <t>της</t>
-  </si>
-  <si>
-    <t>01, 02, 03, 04, 07, 09, 011, 013, 017, 019, 028, 030, 031, 033, 034, 036, 037, 041, 043, 044* vid, 045, 0211, f1, f13, f35, 2, 9, 22, 27, 71, 75, 114, 119, 161, 164, 199, 217, 269, 274*, 274C, 291, 371, 431, 449, 461, 544, 545, 579, 585, 740, 804, 892, 1005, 1071, 1079, 1167, 1192, 1200, 1241, 1273, 1319, 1321, 1325, 1365, 1519, 1574, L387, L773, L950 read επι του βατου.</t>
   </si>
   <si>
     <t>05, 021, 032, 038, 042, 044C, 16, 33, 184, 274A, 372, 517, 565, 700, 726, 954, 1093, 1216, 1243, 1342, 1424, 1675, 2786 read επι της βατου; 157 reads επι τη βατω.</t>
@@ -3291,11 +3265,41 @@
   <si>
     <t>038, 0211, 274A, 461A, 544, 892*, 1005, 1093,1365, L63, L387, L547 (within a larger transposition), L627, L773, L844, L848, L849, L1126 add γυναικες; 04C3 adds γυνεκες; 199, 1241, CyrJ add αι γυναικες; L846 (within a larger transposition), L2211 add αι τιμιαι γυναικες.</t>
   </si>
+  <si>
+    <t>[το αγιον]</t>
+  </si>
+  <si>
+    <t>τ[α] αγι[α]</t>
+  </si>
+  <si>
+    <t>f1 pt, 157, 274*vid, 431, 461, 544, 740, 1093, 1200, 1342, 1424K, 2786, CyrJ, DidB pt read τα αγια.</t>
+  </si>
+  <si>
+    <t>01, 03, 04, 07, 011, 017, 019, 021, 022, 028, 030, 031, 032, 033, 037, 038, 041, 042, 043, 045, 0211, 0287, f1 pt, f13, f35, 2, 9, 16, 22, 27, 33, 71, 75, 114, 119, 161, 164, 184, 199, 217, 269, 274C, 274A, 291, 371, 372, 449, 517, 545, 565, 579, 585, 700, 726, 804, 892, 954, 1005, 1071, 1079, 1167, 1192, 1216, 1241, 1243, 1273, 1319, 1321, 1325, 1365, 1424T, 1519, 1675, L63, L387, L547, L627, L773, L844, L848, L950, L2211, Basil, Did, DidB pt read το αγιον.</t>
+  </si>
+  <si>
+    <t>05, 019, 032, 043, 0211, 274T, 545, 579, 700, 1243, L2211 read συνερει; 038 reads συνερι; 2* reads συνερη.</t>
+  </si>
+  <si>
+    <t>01, 02, 03, 04, 07, 017, 021, 028, 030, 031, 033, 034, 036, 037, 041, 042, 045, f1, f13, f35, 9, 16, 22, 27, 33, 71, 75, 114, 119, 157, 161, 164, 184, 199, 269, 274A, 291, 371, 372, 431, 449, 461, 517, 544, 565, 585, 726, 804, 892, 954, 1005, 1071, 1079, 1093, 1167, 1192, 1200, 1216, 1241, 1319, 1321, 1325, 1342, 1365, 1424, 1519, 1675, 2786, L63, L547, L773 (in two lections), L844, L848, L849, L950 (in two lections), L1126, Basil read συναιρει; 2C reads συνηρει.</t>
+  </si>
+  <si>
+    <t>03C2, 021, 022, 028T, 033, 034, 036, 042, 045, f13, f35, 2, 22, 27 vid, 71, 75, 119, 157, 291, 431, 449, 461, 517, 700, 804, 1005, 1167, 1192, 1216, 1321, 1342, 1365, 1675, 2542, 2786, L773, pm read συρα φοινικισσα; 03* reads συρα φοινεικισσα; 1243C reads συρα φοινηκισσα; 1243* reads συρα φοινηκεισσα; 07, 184, 217 read συρα φοινικησσα; 740, 1093 read συρα φοινικησα; 9, 16, 199 read συρα φοινικισα; 030, 032, 752, 1515 read συρα φοινισσα; 0211 reads συρα φυνισα; 544 reads συρα [φ]οινικισσα.</t>
+  </si>
+  <si>
+    <t>Written in majuscule script; this could be a correction to an omission by haplography, but both readings are well-attested; a lection begins at this verse, and the lectionary tradition may be the source of the addition; occurs after μικρων.</t>
+  </si>
+  <si>
+    <t>01, 02, 03, 04, 07, 09, 011, 013, 017, 019, 028, 030, 031, 033, 034, 036, 037, 041, 043, 044* vid, 045, 0211, f1, f13, f35, 2, 9, 22, 27, 71, 75, 114, 119, 161, 164, 199, 217, 269, 274T, 291, 371, 431, 449, 461, 544, 545, 579, 585, 740, 804, 892, 1005, 1071, 1079, 1167, 1192, 1200, 1241, 1273, 1319, 1321, 1325, 1365, 1519, 1574, L387, L773, L950 read επι του βατου.</t>
+  </si>
+  <si>
+    <t>Written in minuscule script; the lection containing this verse starts at Luke 2:20, and the referent of the pronoun is not specified in this context.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="10"/>
@@ -3730,11 +3734,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4064,7 +4068,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="285">
+    <row r="12" spans="1:9" ht="270.75">
       <c r="A12" s="1" t="s">
         <v>80</v>
       </c>
@@ -4075,143 +4079,143 @@
         <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="185.25">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="142.5">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="156.75">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="256.5">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="256.5">
       <c r="A17" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>55</v>
@@ -4220,27 +4224,27 @@
         <v>12</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="242.25">
       <c r="A18" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>19</v>
@@ -4249,27 +4253,27 @@
         <v>12</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="285">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>55</v>
@@ -4278,221 +4282,221 @@
         <v>12</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="85.5">
       <c r="A20" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="128.25">
       <c r="A21" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>64</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="185.25">
       <c r="A22" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="270.75">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="285">
       <c r="A23" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>150</v>
+        <v>970</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>151</v>
+        <v>971</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="285">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="256.5">
       <c r="A25" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="285">
       <c r="A26" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="242.25">
       <c r="A27" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>11</v>
@@ -4501,27 +4505,27 @@
         <v>12</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="85.5">
       <c r="A28" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>28</v>
@@ -4530,27 +4534,27 @@
         <v>12</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="342">
       <c r="A29" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>55</v>
@@ -4559,227 +4563,227 @@
         <v>12</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="256.5">
       <c r="A30" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="128.25">
       <c r="A31" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="228">
       <c r="A32" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="156.75">
       <c r="A33" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="99.75">
       <c r="A34" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>64</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="313.5">
       <c r="A35" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>223</v>
+        <v>972</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="185.25">
       <c r="A36" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="342">
       <c r="A37" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>69</v>
@@ -4788,366 +4792,366 @@
         <v>12</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="156.75">
       <c r="A38" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>243</v>
+        <v>973</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="285">
       <c r="A39" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="299.25">
       <c r="A40" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="114">
       <c r="A41" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="228">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="213.75">
       <c r="A42" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>265</v>
+        <v>974</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="185.25">
       <c r="A43" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="342">
       <c r="A44" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="228">
       <c r="A45" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="199.5">
       <c r="A46" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="185.25">
       <c r="A47" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="370.5">
       <c r="A48" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="356.25">
       <c r="A49" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="199.5">
       <c r="A50" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>28</v>
@@ -5156,114 +5160,114 @@
         <v>12</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="213.75">
       <c r="A51" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>25</v>
+        <v>975</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="213.75">
       <c r="A52" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="285">
       <c r="A53" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="71.25">
       <c r="A54" s="1" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>55</v>
@@ -5272,82 +5276,82 @@
         <v>12</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="299.25">
       <c r="A55" s="1" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="285">
       <c r="A56" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="256.5">
       <c r="A57" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>28</v>
@@ -5356,111 +5360,111 @@
         <v>12</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="342">
       <c r="A58" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="285">
       <c r="A59" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="313.5">
       <c r="A60" s="1" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="171">
       <c r="A61" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>55</v>
@@ -5469,27 +5473,27 @@
         <v>12</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="270.75">
       <c r="A62" s="1" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>55</v>
@@ -5498,27 +5502,27 @@
         <v>12</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>64</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="256.5">
       <c r="A63" s="1" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>55</v>
@@ -5527,401 +5531,401 @@
         <v>12</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="399">
       <c r="A64" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="299.25">
       <c r="A65" s="1" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="399">
       <c r="A66" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="256.5">
       <c r="A67" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="409.5">
       <c r="A68" s="1" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="228">
       <c r="A69" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="185.25">
       <c r="A70" s="1" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="356.25">
       <c r="A71" s="1" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="199.5">
       <c r="A72" s="1" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="256.5">
       <c r="A73" s="1" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="270.75">
       <c r="A74" s="1" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>459</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="228">
       <c r="A75" s="1" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="71.25">
       <c r="A76" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="213.75">
       <c r="A77" s="1" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>55</v>
@@ -5930,114 +5934,114 @@
         <v>12</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="285">
       <c r="A78" s="1" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="409.5">
       <c r="A79" s="1" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="270.75">
       <c r="A80" s="1" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="299.25">
       <c r="A81" s="1" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>55</v>
@@ -6046,56 +6050,56 @@
         <v>12</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="384.75">
       <c r="A82" s="1" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="G82" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>505</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="409.5">
       <c r="A83" s="1" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>55</v>
@@ -6104,114 +6108,114 @@
         <v>12</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="213.75">
       <c r="A84" s="1" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="270.75">
       <c r="A85" s="1" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>64</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="299.25">
       <c r="A86" s="1" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>64</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="71.25">
       <c r="A87" s="1" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>55</v>
@@ -6220,82 +6224,82 @@
         <v>12</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>64</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="85.5">
       <c r="A88" s="1" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>64</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="299.25">
       <c r="A89" s="1" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="185.25">
       <c r="A90" s="1" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>28</v>
@@ -6304,164 +6308,164 @@
         <v>12</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="299.25">
       <c r="A91" s="1" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="409.5">
       <c r="A92" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="409.5">
       <c r="A93" s="1" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="28.5">
       <c r="A94" s="1" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="299.25">
       <c r="A95" s="1" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -6475,11 +6479,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6495,2010 +6499,2010 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="71.25">
       <c r="A16" s="5" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="57">
       <c r="A25" s="5" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="28.5">
       <c r="A27" s="5" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="28.5">
       <c r="A28" s="5" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="28.5">
       <c r="A29" s="5" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="5" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="5" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="5" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="5" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" ht="28.5">
       <c r="A34" s="5" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="5" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="5" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" ht="42.75">
       <c r="A37" s="5" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="5" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="5" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="5" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="5" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" ht="71.25">
       <c r="A42" s="5" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="5" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" ht="42.75">
       <c r="A44" s="5" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="42.75">
       <c r="A45" s="5" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="5" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="5" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="5" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="5" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="5" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="5" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="5" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="5" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="5" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="5" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="5" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="5" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="5" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F58" s="4"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="5" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="5" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="5" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="F61" s="4"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="5" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F62" s="4"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="5" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="F63" s="4"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="5" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="F64" s="4"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="5" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="F65" s="4"/>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="5" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="F66" s="4"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="5" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="F67" s="4"/>
     </row>
     <row r="68" spans="1:6" ht="99.75">
       <c r="A68" s="5" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="28.5">
       <c r="A69" s="5" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="45">
       <c r="A70" s="5" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="5" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="5" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="5" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="5" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="5" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="5" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="5" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="5" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="5" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="5" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="5" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="5" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="5" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="5" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="5" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="5" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="5" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="5" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="5" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="5" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="5" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="5" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="5" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="5" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="5" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="5" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="5" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="5" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="5" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="5" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="5" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="5" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="5" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="5" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="5" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="5" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="5" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="5" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="5" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="5" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="5" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="5" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="5" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="5" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="5" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="5" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="5" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="5" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="5" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="5" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="5" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="5" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="5" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="5" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="5" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="5" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="5" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="5" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="5" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="5" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="5" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="5" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="5" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="5" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="5" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="5" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="5" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="5" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="5" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="5" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="5" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -8512,7 +8516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8530,674 +8534,674 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="5" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="5" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="5" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="5" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="5" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="5" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="5" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="14.25">
       <c r="A8" s="5" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="5" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="5" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="5" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="128.25">
       <c r="A12" s="5" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="57">
       <c r="A13" s="5" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="5" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="5" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" ht="114">
       <c r="A16" s="5" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="5" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="45">
       <c r="A18" s="5" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="42.75">
       <c r="A19" s="5" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="57">
       <c r="A20" s="5" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25">
       <c r="A21" s="5" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" ht="14.25">
       <c r="A22" s="5" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="14.25">
       <c r="A23" s="5" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="57">
       <c r="A24" s="5" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="42.75">
       <c r="A25" s="5" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25">
       <c r="A26" s="5" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25">
       <c r="A27" s="5" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" ht="14.25">
       <c r="A28" s="5" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" ht="14.25">
       <c r="A29" s="5" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" ht="14.25">
       <c r="A30" s="5" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4" ht="14.25">
       <c r="A31" s="5" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" ht="14.25">
       <c r="A32" s="5" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4" ht="14.25">
       <c r="A33" s="5" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4" ht="14.25">
       <c r="A34" s="5" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4" ht="14.25">
       <c r="A35" s="5" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" ht="14.25">
       <c r="A36" s="5" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" ht="14.25">
       <c r="A37" s="5" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4" ht="14.25">
       <c r="A38" s="5" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4" ht="14.25">
       <c r="A39" s="5" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" ht="57">
       <c r="A40" s="5" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.25">
       <c r="A41" s="5" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" ht="14.25">
       <c r="A42" s="5" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" ht="14.25">
       <c r="A43" s="5" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" ht="14.25">
       <c r="A44" s="5" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" ht="14.25">
       <c r="A45" s="5" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" ht="14.25">
       <c r="A46" s="5" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" ht="14.25">
       <c r="A47" s="5" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" ht="14.25">
       <c r="A48" s="5" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:7" ht="14.25">
       <c r="A49" s="5" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:7" ht="14.25">
       <c r="A50" s="5" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:7" ht="14.25">
       <c r="A51" s="5" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:7" ht="14.25">
       <c r="A52" s="5" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="14.25">
       <c r="A53" s="5" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="14.25">
       <c r="A54" s="5" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="G62" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
     </row>
   </sheetData>
